--- a/docs/Timeline.xlsx
+++ b/docs/Timeline.xlsx
@@ -293,9 +293,6 @@
     <t>Project Proposal</t>
   </si>
   <si>
-    <t>TTD perjanjian kontrak, Pembayaran DP (20%)</t>
-  </si>
-  <si>
     <t>Pembuatan dokumen teknis</t>
   </si>
   <si>
@@ -342,6 +339,9 @@
   </si>
   <si>
     <t>Alfin</t>
+  </si>
+  <si>
+    <t>TTD perjanjian kontrak, Pembayaran DP (10%)</t>
   </si>
 </sst>
 </file>
@@ -946,14 +946,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -993,7 +993,7 @@
         <xdr:cNvPr id="4" name="Arrow: Down 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A89BE1F5-9D19-2349-7479-DF7C4EED1828}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A89BE1F5-9D19-2349-7479-DF7C4EED1828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2473,10 +2473,10 @@
   <dimension ref="A1:AK227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2498,17 +2498,17 @@
       <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27"/>
@@ -2518,17 +2518,17 @@
       <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
@@ -2789,7 +2789,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="14"/>
@@ -2811,6 +2811,7 @@
       <c r="D11" s="11"/>
       <c r="E11" s="14"/>
       <c r="F11" s="15"/>
+      <c r="H11" s="27"/>
       <c r="J11" s="16"/>
       <c r="N11" s="16"/>
       <c r="S11" s="16"/>
@@ -2826,7 +2827,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="14"/>
@@ -2878,7 +2879,7 @@
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="14"/>
@@ -2917,10 +2918,10 @@
         <v>70</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="15"/>
@@ -2955,10 +2956,10 @@
         <v>70</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
@@ -2993,10 +2994,10 @@
         <v>70</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="15"/>
@@ -3031,10 +3032,10 @@
         <v>70</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
@@ -3164,7 +3165,7 @@
       </c>
       <c r="B31" s="54"/>
       <c r="C31" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="14"/>
@@ -3204,7 +3205,7 @@
         <v>70</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="14"/>
@@ -3240,7 +3241,7 @@
         <v>70</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" s="55"/>
       <c r="E35" s="41"/>
@@ -3757,7 +3758,7 @@
         <v>70</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="14"/>
@@ -3793,7 +3794,7 @@
         <v>70</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="14"/>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="B74" s="41"/>
       <c r="C74" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="14"/>
@@ -3912,7 +3913,7 @@
         <v>70</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="14"/>
@@ -3951,7 +3952,7 @@
         <v>70</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="14"/>
@@ -3981,8 +3982,8 @@
       <c r="X79" s="17"/>
       <c r="AA79" s="16"/>
       <c r="AE79" s="16"/>
-      <c r="AH79" s="73"/>
-      <c r="AI79" s="73"/>
+      <c r="AH79" s="75"/>
+      <c r="AI79" s="75"/>
       <c r="AJ79" s="16"/>
       <c r="AK79" s="18"/>
     </row>
@@ -6109,11 +6110,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D1:N2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
     <mergeCell ref="AK3:AK4"/>
     <mergeCell ref="AH79:AI79"/>
     <mergeCell ref="O3:S3"/>
@@ -6121,6 +6117,11 @@
     <mergeCell ref="X3:AA3"/>
     <mergeCell ref="AB3:AE3"/>
     <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D1:N2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -6129,26 +6130,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="95cca92f-6818-4473-ad79-b78fe0a88302">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e1b44b65-bcbd-4a9a-86e6-960d36a700a2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D6A0AB5937C5AA4D8D47FAD861B22F2B" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ea83ebbc24158a9f9cc69bf184abcfa7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95cca92f-6818-4473-ad79-b78fe0a88302" xmlns:ns3="e1b44b65-bcbd-4a9a-86e6-960d36a700a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3322f4daac3665df7e8d05badaf70183" ns2:_="" ns3:_="">
     <xsd:import namespace="95cca92f-6818-4473-ad79-b78fe0a88302"/>
@@ -6391,10 +6372,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="95cca92f-6818-4473-ad79-b78fe0a88302">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e1b44b65-bcbd-4a9a-86e6-960d36a700a2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AC0B1C9-7384-4A51-8F4A-0AA9BA56B7AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EE51934-3F17-4E36-801B-71579C4A3C05}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95cca92f-6818-4473-ad79-b78fe0a88302"/>
+    <ds:schemaRef ds:uri="e1b44b65-bcbd-4a9a-86e6-960d36a700a2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6417,20 +6429,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EE51934-3F17-4E36-801B-71579C4A3C05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AC0B1C9-7384-4A51-8F4A-0AA9BA56B7AB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="95cca92f-6818-4473-ad79-b78fe0a88302"/>
-    <ds:schemaRef ds:uri="e1b44b65-bcbd-4a9a-86e6-960d36a700a2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>